--- a/DDT-Selenium/exelsheet/TestCasesFramework.xlsx
+++ b/DDT-Selenium/exelsheet/TestCasesFramework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asad\Desktop\Selenium Projects\DDT-Selenium\exelsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0B1CE6-C45C-4A2A-817F-57301E7CC5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4FF8D2-F8DF-47A7-B5EA-C98AF48B18FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DDT-Selenium/exelsheet/TestCasesFramework.xlsx
+++ b/DDT-Selenium/exelsheet/TestCasesFramework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asad\Desktop\Selenium Projects\DDT-Selenium\exelsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4FF8D2-F8DF-47A7-B5EA-C98AF48B18FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711E2F8D-3B33-4203-B881-0681D7C2B0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Steps</t>
   </si>
@@ -406,7 +406,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,6 +484,9 @@
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -494,6 +497,12 @@
       </c>
       <c r="C5" t="s">
         <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
